--- a/data/countries/british_virgin_islands.xlsx
+++ b/data/countries/british_virgin_islands.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/home/BlenmanSandbox-CC1407-MEDCCC/AP 2023 Spr/data/countries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreipascu/Documents/Yale University/Years/Senior/Spring/CSEC 491/local/data/countries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425B2C53-EAC0-5E4E-B013-FF37394FB73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F648248D-1DEC-F547-BBEB-E95187CF3FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32620" yWindow="880" windowWidth="18000" windowHeight="26400" activeTab="1" xr2:uid="{A00892F2-77B1-0143-89C4-5296CC556B66}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" activeTab="1" xr2:uid="{A00892F2-77B1-0143-89C4-5296CC556B66}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>General</t>
   </si>
@@ -85,9 +93,6 @@
     <t>covid19_deaths</t>
   </si>
   <si>
-    <t>2020-2021 (yearly)</t>
-  </si>
-  <si>
     <t>covid19_mortality</t>
   </si>
   <si>
@@ -152,6 +157,9 @@
   </si>
   <si>
     <t>inbtou_volume_sd</t>
+  </si>
+  <si>
+    <t>2020-2022 (yearly)</t>
   </si>
 </sst>
 </file>
@@ -601,7 +609,7 @@
   <dimension ref="B1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -620,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -629,7 +637,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -638,7 +646,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="4">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -653,7 +661,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -661,7 +669,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -669,7 +677,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -704,7 +712,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -712,7 +720,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -720,7 +728,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -728,7 +736,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
@@ -736,7 +744,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -744,18 +752,18 @@
         <v>13</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
@@ -763,7 +771,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
@@ -771,7 +779,7 @@
         <v>8</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
@@ -779,7 +787,7 @@
         <v>9</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
@@ -787,7 +795,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
@@ -795,7 +803,7 @@
         <v>13</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -811,7 +819,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F2" sqref="F2:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -824,16 +832,16 @@
         <v>16</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>17</v>
@@ -842,7 +850,7 @@
         <v>18</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1130,7 +1138,7 @@
         <v>219000</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12">
         <v>86</v>
@@ -1148,16 +1156,16 @@
         <v>2021</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13">
         <v>3406</v>
@@ -1171,7 +1179,31 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D14" s="16"/>
+      <c r="A14" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <v>3813</v>
+      </c>
+      <c r="G14">
+        <v>25</v>
+      </c>
+      <c r="H14">
+        <f>G14/F14</f>
+        <v>6.5565171780750066E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E15" s="16"/>
